--- a/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TemplateFourCamera.xlsx
+++ b/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TemplateFourCamera.xlsx
@@ -184,7 +184,10 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.9"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
